--- a/UFR.xlsx
+++ b/UFR.xlsx
@@ -1082,7 +1082,7 @@
       </c>
       <c s="4" t="inlineStr" r="J45">
         <is>
-          <t xml:space="preserve">1831</t>
+          <t xml:space="preserve">1781</t>
         </is>
       </c>
       <c s="6" t="str" r="K45"/>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c s="10" r="I47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c s="4" t="str" r="J47"/>
       <c s="6" t="str" r="K47"/>
